--- a/imageCreationExcel/back/107/107_0.xlsx
+++ b/imageCreationExcel/back/107/107_0.xlsx
@@ -491,11 +491,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.081429421934186</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5679865462465516</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>31.26730731685322</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_gamma1.081_sharpness0.568_equalization31.267.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.434531628237163</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8331086078414693</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5268738848221159</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_brightness4.435_contrast0.833_sharpness0.527.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.80443591224627</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9619676683586484</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9425020789031091</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_E_brightness25.804_contrast0.962_sharpness0.943.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -617,11 +617,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9351805925190773</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2362033261189121</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.74967186443394</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_0_contrast0.935_sharpness0.236_equalization13.75.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9845923773865265</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4781123607915175</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.83373992701712</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_gamma0.985_sharpness0.478_equalization4.834.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,24 +696,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.51299629126348</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8719323870144102</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6550774667496466</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_E_brightness7.513_contrast0.872_sharpness0.655.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9873065202656884</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9241336448106435</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>25.89105823387533</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_contrast0.987_gamma0.924_equalization25.891.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.742567205569069</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.15142072137444</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9704283347657761</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_E_brightness8.743_contrast1.151_sharpness0.97.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.917657400243289</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8045452055869077</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.4747946667433922</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_brightness9.918_contrast0.805_sharpness0.475.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.540460214507792</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.919866726150336</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6525540050650274</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_brightness4.54_contrast0.92_sharpness0.653.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.00612769542558</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4097794337978429</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>26.06935533329244</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_gamma1.006_sharpness0.41_equalization26.069.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.12990451726411</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8505315909075019</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6150710574860608</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_brightness12.13_contrast0.851_gamma0.615.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.44801741707537</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8439599711468108</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6923440164124586</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_brightness11.448_contrast0.844_gamma0.692.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.672172401253353</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9075837133386899</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.6548896420307122</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_brightness7.672_contrast0.908_sharpness0.655.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10.53240920734172</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9063150481543252</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.02362035684375344</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_brightness10.532_contrast0.906_sharpness0.024.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.999570940965589</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9168091894398177</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.4395802459017914</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_brightness2.0_contrast0.917_sharpness0.44.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9600047110034372</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9954559278057853</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28.4775620013566</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_contrast0.96_gamma0.995_equalization28.478.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1205,34 +1205,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.059588621204837</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9215575548325118</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>29.91124733560045</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_contrast1.06_gamma0.922_equalization29.911.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.69285532530999</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.847663551341256</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.6596549589906263</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_B_brightness10.693_contrast0.848_gamma0.66.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.005778651833101</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.4827524642582728</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30.03434200339436</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_gamma1.006_sharpness0.483_equalization30.034.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5.851953810554697</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8607662338299935</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5269849685340735</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness5.852_contrast0.861_sharpness0.527.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9629783116548971</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6438868308017509</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>23.95605301222695</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_gamma0.963_sharpness0.644_equalization23.956.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9087928068196763</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3633945640763412</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>28.7281320536587</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_8_gamma0.909_sharpness0.363_equalization28.728.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17.22003730856722</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8917146426263229</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.5499843895692765</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_S_brightness17.22_contrast0.892_gamma0.55.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9675848843153496</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5513586164254025</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8.20146656669727</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_gamma0.968_sharpness0.551_equalization8.201.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12.95301680644791</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8370248648605904</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.6220144634414363</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_T_brightness12.953_contrast0.837_gamma0.622.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9950209965183408</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.4815423095546965</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9.312440955126648</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_gamma0.995_sharpness0.482_equalization9.312.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,34 +1625,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14.63518674341305</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.800740625238652</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5105047592532577</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_brightness14.635_contrast0.801_gamma0.511.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9182111101377275</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6586643192203722</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4.969099040757621</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_gamma0.918_sharpness0.659_equalization4.969.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.030645129427803</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.4621258387762308</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>23.77579040709982</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_9_gamma1.031_sharpness0.462_equalization23.776.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.954493486752683</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.6410618948894518</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>30.10877887681058</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_gamma0.954_sharpness0.641_equalization30.109.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5.699361858579604</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8472928153263933</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.6406800326482789</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_9_brightness5.699_contrast0.847_sharpness0.641.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19.56641223137236</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8126734538081318</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6197456721328</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness19.566_contrast0.813_gamma0.62.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.036602582048801</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.662629866400076</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>30.80892599559954</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_gamma1.037_sharpness0.663_equalization30.809.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.000519537200437</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8563084748303924</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.4280132379935767</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness2.001_contrast0.856_sharpness0.428.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12.27495142956229</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9076075929288135</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.6908696137218067</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness12.275_contrast0.908_gamma0.691.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.87177561172426</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.826897265879631</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5670078652458019</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_brightness11.872_contrast0.827_gamma0.567.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.4025157613697</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9361793411135185</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.8302769644078157</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_brightness10.403_contrast0.936_gamma0.83.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,30 +2091,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>26.48125430050617</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.125903846673322</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.7872376797100964</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_brightness26.481_contrast1.126_gamma0.787.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16.89912902920113</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.093021261733048</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2062166568746084</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_brightness16.899_contrast1.093_sharpness0.206.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,30 +2175,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8238188410880833</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6761184741648337</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.003055263525799852</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_contrast0.824_gamma0.676_sharpness0.003.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5316784799672046</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.725581217402942</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>23.85706164877129</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_gamma0.532_sharpness0.726_equalization23.857.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2259,15 +2259,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.194297013040785</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9143859844653275</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6.130797564211392</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_E_contrast1.194_gamma0.914_equalization6.131.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7.71214624306154</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5808644694837791</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.7772407325891717</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_brightness7.712_gamma0.581_sharpness0.777.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6499676187469122</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.646408263408716</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>26.38128790849082</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_gamma0.65_sharpness0.646_equalization26.381.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,30 +2385,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8078343921368842</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6298018659987976</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.3584972595287615</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_P_contrast0.808_gamma0.63_sharpness0.358.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2427,15 +2427,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.042093973577643</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6570742394167544</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>27.98989248024453</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_contrast1.042_sharpness0.657_equalization27.99.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.028134905914679</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.3395806413774879</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30.48208653776498</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_gamma1.028_sharpness0.34_equalization30.482.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
